--- a/01_Data/Config.xlsx
+++ b/01_Data/Config.xlsx
@@ -10,14 +10,27 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19D6C59E-41CE-4C2B-836C-73C2EA3CE9E3}"/>
   <bookViews>
-    <workbookView xWindow="10090" yWindow="7400" windowWidth="24700" windowHeight="12010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-20" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1640,7 +1653,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
